--- a/testdata/testdata4.xlsx
+++ b/testdata/testdata4.xlsx
@@ -72,10 +72,10 @@
     <t xml:space="preserve">deepthi.aries@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">RGVlcHRoaTEyMyo=</t>
+  </si>
+  <si>
     <t xml:space="preserve">RGVlcHRoaTEyMzQq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGVlcHRoaTEyMyo=</t>
   </si>
   <si>
     <t xml:space="preserve">Deepthi</t>
@@ -324,11 +324,11 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.57"/>
@@ -558,10 +558,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G5:H5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -581,10 +581,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G5:H5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
